--- a/src/main/resource/ScPages.xlsx
+++ b/src/main/resource/ScPages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Test Data About us  Page</t>
+  </si>
+  <si>
+    <t>content-page</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -544,15 +547,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -588,6 +593,14 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
